--- a/271025_Results_Med/output/m1/27102025_mod1_by_gender.xlsx
+++ b/271025_Results_Med/output/m1/27102025_mod1_by_gender.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>146 (78.1%)</t>
+          <t>146 (77.7%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="9">
@@ -617,7 +617,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30 (16.0%)</t>
+          <t>31 (16.5%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="10">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="11">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>0.2775</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="12">
